--- a/PerformanceData/RTDR_Performance_DesktopPC_GTX1070Ti_20190907125540.xlsx
+++ b/PerformanceData/RTDR_Performance_DesktopPC_GTX1070Ti_20190907125540.xlsx
@@ -7429,7 +7429,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -7442,17 +7442,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>y = 0.0011x + 10.92</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>R² = 0.7981</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7469,7 +7469,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -9427,7 +9427,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9447,7 +9447,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -9467,7 +9467,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -9480,17 +9480,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>y = 0.0004x + 5.126</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
                       <a:t>R² = 0.8205</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000"/>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9507,7 +9507,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -11491,7 +11491,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11504,7 +11504,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
                     <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
@@ -11526,7 +11526,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11564,7 +11564,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11611,7 +11611,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11624,7 +11624,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" b="1">
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
                     <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                     <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
@@ -11646,7 +11646,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11684,7 +11684,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13346,7 +13346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
